--- a/Unreal5_Lecture_Project/Part2/ArenaBattle/GameData/ABCharacterStatTable.xlsx
+++ b/Unreal5_Lecture_Project/Part2/ArenaBattle/GameData/ABCharacterStatTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UE5Part2\PreTest\ArenaBattle10pre\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B-JeonganLee\Unreal5_Lecture_Project\Part2\ArenaBattle\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6DBFFE-125E-4A66-AF5B-85CEEB9F49AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320BA87C-9311-4B5E-8E3D-A66799417270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="1120" windowWidth="31540" windowHeight="17940" xr2:uid="{14535CBB-5647-4022-885E-3A0FC95BEC4B}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{14535CBB-5647-4022-885E-3A0FC95BEC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Player" sheetId="2" r:id="rId1"/>
@@ -133,7 +133,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -448,17 +448,17 @@
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -478,7 +478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -486,7 +486,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1">
         <v>40</v>
@@ -498,7 +498,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -506,7 +506,7 @@
         <v>150</v>
       </c>
       <c r="C4" s="1">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1">
         <v>40</v>
@@ -518,7 +518,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -526,7 +526,7 @@
         <v>200</v>
       </c>
       <c r="C5" s="1">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1">
         <v>40</v>
@@ -538,7 +538,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,7 +546,7 @@
         <v>250</v>
       </c>
       <c r="C6" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
@@ -558,7 +558,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -578,7 +578,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -598,7 +598,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -618,7 +618,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -638,7 +638,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -658,7 +658,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
